--- a/stats_code/output/run2_individual_variability_recalled_events/isc_statistical_results_all_analyses.xlsx
+++ b/stats_code/output/run2_individual_variability_recalled_events/isc_statistical_results_all_analyses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>condition</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>p_value</t>
+  </si>
+  <si>
+    <t>ci_lower</t>
+  </si>
+  <si>
+    <t>ci_upper</t>
+  </si>
+  <si>
+    <t>cohens_d</t>
   </si>
   <si>
     <t>analysis</t>
@@ -419,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,10 +462,19 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>153</v>
@@ -477,15 +495,24 @@
         <v>4.476079008978728E-23</v>
       </c>
       <c r="H2">
+        <v>0.1134381337791296</v>
+      </c>
+      <c r="I2">
+        <v>0.1593173141811615</v>
+      </c>
+      <c r="J2">
+        <v>0.9495803796002429</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1378</v>
@@ -506,15 +533,24 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.217958780993185</v>
+      </c>
+      <c r="I3">
+        <v>0.2331406103187456</v>
+      </c>
+      <c r="J3">
+        <v>1.57019474557089</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1485</v>
@@ -535,15 +571,24 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.2419306763307528</v>
+      </c>
+      <c r="I4">
+        <v>0.2557042527021296</v>
+      </c>
+      <c r="J4">
+        <v>1.839091567138032</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>9</v>
       </c>
       <c r="B5">
         <v>153</v>
@@ -564,15 +609,24 @@
         <v>5.059439492674512E-27</v>
       </c>
       <c r="H5">
+        <v>0.1333872583547314</v>
+      </c>
+      <c r="I5">
+        <v>0.1802960756899898</v>
+      </c>
+      <c r="J5">
+        <v>1.068097531361013</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>10</v>
       </c>
       <c r="B6">
         <v>1378</v>
@@ -593,15 +647,24 @@
         <v>7.905050333459945E-323</v>
       </c>
       <c r="H6">
+        <v>0.210400246471035</v>
+      </c>
+      <c r="I6">
+        <v>0.2270877795626778</v>
+      </c>
+      <c r="J6">
+        <v>1.385413497423117</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1485</v>
@@ -622,15 +685,24 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.2211268921738559</v>
+      </c>
+      <c r="I7">
+        <v>0.2363287070926379</v>
+      </c>
+      <c r="J7">
+        <v>1.531767058474373</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>153</v>
@@ -651,15 +723,24 @@
         <v>7.054387994700821E-23</v>
       </c>
       <c r="H8">
+        <v>0.1161452754775457</v>
+      </c>
+      <c r="I8">
+        <v>0.1634747820313342</v>
+      </c>
+      <c r="J8">
+        <v>0.9436485865200541</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1378</v>
@@ -680,15 +761,24 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.2268425741306979</v>
+      </c>
+      <c r="I9">
+        <v>0.2433651300170685</v>
+      </c>
+      <c r="J9">
+        <v>1.503896312514932</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>11</v>
       </c>
       <c r="B10">
         <v>1485</v>
@@ -709,15 +799,24 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.2521814345721946</v>
+      </c>
+      <c r="I10">
+        <v>0.2673328367481853</v>
+      </c>
+      <c r="J10">
+        <v>1.745355402702423</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>153</v>
@@ -738,15 +837,24 @@
         <v>1.160502895816204E-26</v>
       </c>
       <c r="H11">
+        <v>0.1370010867066752</v>
+      </c>
+      <c r="I11">
+        <v>0.185763164510833</v>
+      </c>
+      <c r="J11">
+        <v>1.057248733609079</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1378</v>
@@ -767,15 +875,24 @@
         <v>2.633532073650717E-304</v>
       </c>
       <c r="H12">
+        <v>0.219975163143974</v>
+      </c>
+      <c r="I12">
+        <v>0.2383117577309528</v>
+      </c>
+      <c r="J12">
+        <v>1.320760777876734</v>
+      </c>
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1485</v>
@@ -796,10 +913,19 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.2309261864014436</v>
+      </c>
+      <c r="I13">
+        <v>0.2477290141128902</v>
+      </c>
+      <c r="J13">
+        <v>1.450038809286692</v>
+      </c>
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="I13" t="s">
-        <v>15</v>
+      <c r="L13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
